--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379905ED-A6B3-4108-BF0D-4A72271078AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D97174-EFFC-4597-B6C6-A834403949F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="7095" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>测试接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +73,67 @@
   </si>
   <si>
     <t>最快响应时间（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event-service</t>
+  </si>
+  <si>
+    <t>实例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user-service</t>
+  </si>
+  <si>
+    <t>AI-service</t>
+  </si>
+  <si>
+    <t>等待队列长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库最大连接池大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库最小空闲线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端实例情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jmeter参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +155,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,8 +183,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,21 +478,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078995EA-AED9-422C-92B3-68C7A1063DAB}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D97174-EFFC-4597-B6C6-A834403949F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A463AA1-3F43-414B-BCC8-EFD524D0E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,55 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>测试接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均响应时间（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getEvents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getNums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeDone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发数(一秒内启动线程数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最快响应时间（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="27">
   <si>
     <t>实例个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jmeter参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,12 +84,60 @@
     <t>循环次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>get平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get 90%百分位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramp-Up Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat连接池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL数据库连接池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优参数情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端参数设置：改变Tomcat连接池参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端参数设置：改变MySQL连接池参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端参数设置：根据上述结果进行组合调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +157,47 @@
       <color rgb="FF333333"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,20 +220,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,160 +531,2478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>125</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8">
+        <v>100</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
+        <v>100</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
+        <v>500</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
+        <v>500</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>375</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>250</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <v>100</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
+        <v>100</v>
+      </c>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
+        <v>400</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>300</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
+        <v>200</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
+        <v>80</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
+        <v>80</v>
+      </c>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>37</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>25</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
+        <v>12</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10">
+        <v>12</v>
+      </c>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>500</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
+        <v>500</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
+        <v>500</v>
+      </c>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
+        <v>100</v>
+      </c>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>10</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>10000</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>10000</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>2000</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>1000</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>500</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>200</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>200</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>200</v>
+      </c>
+      <c r="N23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
+        <v>200</v>
+      </c>
+      <c r="R23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>500</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>500</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>1000</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>1000</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>500</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>375</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>250</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>125</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1">
+        <v>125</v>
+      </c>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>300</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>200</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <v>100</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1">
+        <v>100</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>37</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>25</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>12</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1">
+        <v>12</v>
+      </c>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>500</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
+        <v>500</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1">
+        <v>500</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10">
+        <v>100</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10">
+        <v>100</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10">
+        <v>100</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10">
+        <v>100</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10">
+        <v>100</v>
+      </c>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
+        <v>10</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10">
+        <v>10</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10">
+        <v>10</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10">
+        <v>10</v>
+      </c>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>10000</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>10000</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>10000</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>10000</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2000</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2000</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>2000</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>2000</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>1000</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>1000</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>1000</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>500</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>500</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+      <c r="R41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>200</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="N42">
+        <v>200</v>
+      </c>
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>100</v>
+      </c>
+      <c r="R43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>200</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>200</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="Q44">
+        <v>200</v>
+      </c>
+      <c r="R44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>500</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>500</v>
+      </c>
+      <c r="N45">
+        <v>20</v>
+      </c>
+      <c r="Q45">
+        <v>500</v>
+      </c>
+      <c r="R45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1000</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>1000</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <v>1000</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>500</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>375</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
+        <v>250</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1">
+        <v>125</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1">
+        <v>125</v>
+      </c>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>400</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
+        <v>300</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
+        <v>200</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1">
+        <v>100</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1">
+        <v>100</v>
+      </c>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
+        <v>37</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
+        <v>25</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1">
+        <v>12</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1">
+        <v>12</v>
+      </c>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1">
+        <v>500</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1">
+        <v>500</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1">
+        <v>500</v>
+      </c>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1">
-        <v>100</v>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <v>100</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1">
+        <v>100</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1">
+        <v>100</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1">
+        <v>100</v>
+      </c>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1">
+        <v>10</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1">
+        <v>10</v>
+      </c>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>10000</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>10000</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>10000</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>10000</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>2000</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2000</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>2000</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>2000</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>1000</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>1000</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>1000</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>500</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="I62">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>500</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>500</v>
+      </c>
+      <c r="Q62">
+        <v>20</v>
+      </c>
+      <c r="R62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+      <c r="I63">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <v>200</v>
+      </c>
+      <c r="M63">
+        <v>50</v>
+      </c>
+      <c r="N63">
+        <v>200</v>
+      </c>
+      <c r="Q63">
+        <v>50</v>
+      </c>
+      <c r="R63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>100</v>
+      </c>
+      <c r="N64">
+        <v>100</v>
+      </c>
+      <c r="Q64">
+        <v>100</v>
+      </c>
+      <c r="R64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>200</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="I65">
+        <v>200</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>200</v>
+      </c>
+      <c r="N65">
+        <v>50</v>
+      </c>
+      <c r="Q65">
+        <v>200</v>
+      </c>
+      <c r="R65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>500</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>500</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>500</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="M66">
+        <v>500</v>
+      </c>
+      <c r="N66">
+        <v>20</v>
+      </c>
+      <c r="Q66">
+        <v>500</v>
+      </c>
+      <c r="R66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1000</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>1000</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>1000</v>
+      </c>
+      <c r="N67">
+        <v>10</v>
+      </c>
+      <c r="Q67">
+        <v>1000</v>
+      </c>
+      <c r="R67">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="240">
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="A48:T48"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -640,86 +3011,601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078995EA-AED9-422C-92B3-68C7A1063DAB}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>125</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>125</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
+        <v>125</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>500</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
+        <v>500</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2.78</v>
-      </c>
-      <c r="C3">
-        <v>2.81</v>
-      </c>
-      <c r="D3">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="C4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.7E-2</v>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10000</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2000</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>200</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>500</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0DDD4-A415-43BC-A737-03F31E372BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69678165-CEC6-440F-B3B3-63BF9DABD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,32 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接入了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>agent</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干扰因素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最优并发数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +161,33 @@
         <charset val="134"/>
       </rPr>
       <t>某日的全部日程（在含有日程的天数中随机选择）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未接入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agent</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,13 +319,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -333,20 +338,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,7 +633,7 @@
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,487 +653,488 @@
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.75" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="8.75" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="M1" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="M1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="H2" s="13"/>
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="11">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="M3" s="7" t="s">
+      <c r="H3" s="13"/>
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="11">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="M4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="M4" s="7" t="s">
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
+        <v>500</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>250</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>100</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <v>50</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
+        <v>50</v>
+      </c>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
+        <v>400</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>200</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
+        <v>80</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
+        <v>25</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
+        <v>12</v>
+      </c>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="7" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>12</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10">
+        <v>3</v>
+      </c>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>500</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>500</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
         <v>250</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>100</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
-        <v>50</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
-        <v>50</v>
-      </c>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <v>400</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>200</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>80</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4">
-        <v>25</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4">
-        <v>12</v>
-      </c>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>12</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
-        <v>6</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
-        <v>3</v>
-      </c>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
-        <v>500</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
-        <v>250</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
         <v>125</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <v>100</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>100</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>100</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>100</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <v>100</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>100</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <v>100</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3">
-        <v>100</v>
-      </c>
-      <c r="T13" s="3"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11">
+        <v>100</v>
+      </c>
+      <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3">
-        <v>10</v>
-      </c>
-      <c r="T14" s="3"/>
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>10</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11">
+        <v>10</v>
+      </c>
+      <c r="T14" s="11"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1203,10 +1205,10 @@
       <c r="B17">
         <v>10000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="3">
         <v>0.04</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="3">
         <v>4.7E-2</v>
       </c>
       <c r="E17">
@@ -1214,6 +1216,12 @@
       </c>
       <c r="F17">
         <v>10000</v>
+      </c>
+      <c r="G17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H17">
+        <v>5.5E-2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1241,10 +1249,10 @@
       <c r="B18">
         <v>2000</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="E18">
@@ -1279,10 +1287,10 @@
       <c r="B19">
         <v>1000</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E19">
@@ -1317,10 +1325,10 @@
       <c r="B20">
         <v>500</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="3">
         <v>0.08</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="3">
         <v>0.129</v>
       </c>
       <c r="E20">
@@ -1355,10 +1363,10 @@
       <c r="B21">
         <v>200</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="3">
         <v>0.19700000000000001</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="3">
         <v>0.32500000000000001</v>
       </c>
       <c r="E21">
@@ -1393,10 +1401,10 @@
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="3">
         <v>0.312</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="3">
         <v>0.51</v>
       </c>
       <c r="E22">
@@ -1431,10 +1439,10 @@
       <c r="B23">
         <v>50</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="3">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="3">
         <v>0.751</v>
       </c>
       <c r="E23">
@@ -1469,10 +1477,10 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="3">
         <v>1.256</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="3">
         <v>2.379</v>
       </c>
       <c r="E24">
@@ -1507,10 +1515,10 @@
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="3">
         <v>2.9060000000000001</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="3">
         <v>5.3390000000000004</v>
       </c>
       <c r="E25">
@@ -1539,340 +1547,340 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
-        <v>500</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11">
+        <v>500</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
         <v>375</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
         <v>250</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11">
         <v>125</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3">
+      <c r="R29" s="11"/>
+      <c r="S29" s="11">
         <v>125</v>
       </c>
-      <c r="T29" s="3"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11">
         <v>400</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
         <v>300</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11">
         <v>200</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3">
-        <v>100</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3" t="s">
+      <c r="N30" s="11"/>
+      <c r="O30" s="11">
+        <v>100</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3">
-        <v>100</v>
-      </c>
-      <c r="T30" s="3"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11">
+        <v>100</v>
+      </c>
+      <c r="T30" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11">
         <v>50</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
         <v>37</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
         <v>25</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11">
         <v>12</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3" t="s">
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3">
+      <c r="R31" s="11"/>
+      <c r="S31" s="11">
         <v>12</v>
       </c>
-      <c r="T31" s="3"/>
+      <c r="T31" s="11"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11">
         <v>5000</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
+        <v>500</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
         <v>1000</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3">
-        <v>500</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3" t="s">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11">
+        <v>500</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3">
-        <v>500</v>
-      </c>
-      <c r="T32" s="3"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11">
+        <v>500</v>
+      </c>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4" t="s">
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4">
-        <v>100</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10">
+        <v>100</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>100</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10">
+        <v>100</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
-        <v>100</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10">
+        <v>100</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4">
-        <v>100</v>
-      </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10">
+        <v>100</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4">
-        <v>100</v>
-      </c>
-      <c r="T34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10">
+        <v>100</v>
+      </c>
+      <c r="T34" s="10"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
-        <v>10</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4">
-        <v>10</v>
-      </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4">
-        <v>10</v>
-      </c>
-      <c r="T35" s="4"/>
+      <c r="A35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
+        <v>10</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10">
+        <v>10</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10">
+        <v>10</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10">
+        <v>10</v>
+      </c>
+      <c r="T35" s="10"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -2225,344 +2233,344 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="A49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3">
-        <v>500</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11">
+        <v>500</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11">
         <v>375</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11">
         <v>250</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3" t="s">
+      <c r="L50" s="11"/>
+      <c r="M50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3">
+      <c r="N50" s="11"/>
+      <c r="O50" s="11">
         <v>125</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3" t="s">
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3">
+      <c r="R50" s="11"/>
+      <c r="S50" s="11">
         <v>125</v>
       </c>
-      <c r="T50" s="3"/>
+      <c r="T50" s="11"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11">
         <v>400</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11">
         <v>300</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11">
         <v>200</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3" t="s">
+      <c r="L51" s="11"/>
+      <c r="M51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3">
-        <v>100</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3" t="s">
+      <c r="N51" s="11"/>
+      <c r="O51" s="11">
+        <v>100</v>
+      </c>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3">
-        <v>100</v>
-      </c>
-      <c r="T51" s="3"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11">
+        <v>100</v>
+      </c>
+      <c r="T51" s="11"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11">
         <v>50</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11">
         <v>37</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11">
         <v>25</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3" t="s">
+      <c r="L52" s="11"/>
+      <c r="M52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3">
+      <c r="N52" s="11"/>
+      <c r="O52" s="11">
         <v>12</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3" t="s">
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3">
+      <c r="R52" s="11"/>
+      <c r="S52" s="11">
         <v>12</v>
       </c>
-      <c r="T52" s="3"/>
+      <c r="T52" s="11"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11">
         <v>5000</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
-        <v>500</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11">
+        <v>500</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11">
         <v>1000</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3" t="s">
+      <c r="L53" s="11"/>
+      <c r="M53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3">
-        <v>500</v>
-      </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3" t="s">
+      <c r="N53" s="11"/>
+      <c r="O53" s="11">
+        <v>500</v>
+      </c>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3">
-        <v>500</v>
-      </c>
-      <c r="T53" s="3"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11">
+        <v>500</v>
+      </c>
+      <c r="T53" s="11"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3" t="s">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3" t="s">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3" t="s">
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3">
-        <v>100</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11">
+        <v>100</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3">
-        <v>100</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11">
+        <v>100</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
-        <v>100</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3" t="s">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11">
+        <v>100</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3">
-        <v>100</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3" t="s">
+      <c r="N55" s="11"/>
+      <c r="O55" s="11">
+        <v>100</v>
+      </c>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3">
-        <v>100</v>
-      </c>
-      <c r="T55" s="3"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11">
+        <v>100</v>
+      </c>
+      <c r="T55" s="11"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3">
-        <v>10</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
-        <v>10</v>
-      </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3">
-        <v>10</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3">
-        <v>10</v>
-      </c>
-      <c r="T56" s="3"/>
+      <c r="A56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11">
+        <v>10</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11">
+        <v>10</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11">
+        <v>10</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11">
+        <v>10</v>
+      </c>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11">
+        <v>10</v>
+      </c>
+      <c r="T56" s="11"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2916,88 +2924,147 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="A48:T48"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="M31:N31"/>
@@ -3022,147 +3089,88 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="A48:T48"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3180,130 +3188,130 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -3343,21 +3351,30 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I7:J7"/>
@@ -3370,31 +3387,22 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69678165-CEC6-440F-B3B3-63BF9DABD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE80B28-6A70-451A-8B3D-DDAE7BF94643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
   <si>
     <t>实例个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>后端参数设置：改变MySQL连接池参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端参数设置：根据上述结果进行组合调优</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="M29" sqref="M29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,11 +746,11 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7"/>
       <c r="M4" s="9" t="s">
@@ -778,7 +774,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -794,7 +790,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="9"/>
@@ -819,6 +815,10 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -1200,349 +1200,305 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C17" s="3">
-        <v>0.04</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D17" s="3">
-        <v>4.7E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>10000</v>
-      </c>
-      <c r="G17">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H17">
-        <v>5.5E-2</v>
+        <v>2000</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C19" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D19" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>0.129</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R19">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3">
-        <v>0.08</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>0.129</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R20">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3">
-        <v>0.19700000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="D21" s="3">
-        <v>0.32500000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R21">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
-        <v>0.312</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>0.51</v>
+        <v>0.751</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
-        <v>0.45600000000000002</v>
+        <v>1.256</v>
       </c>
       <c r="D23" s="3">
-        <v>0.751</v>
+        <v>2.379</v>
       </c>
       <c r="E23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Q23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R23">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3">
-        <v>1.256</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>2.379</v>
+        <v>5.3390000000000004</v>
       </c>
       <c r="E24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1000</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>1000</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>1000</v>
-      </c>
-      <c r="N25">
-        <v>10</v>
-      </c>
-      <c r="Q25">
-        <v>1000</v>
-      </c>
-      <c r="R25">
         <v>10</v>
       </c>
     </row>
@@ -1565,6 +1521,10 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
@@ -1946,296 +1906,262 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R38">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J40">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R40">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J41">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N41">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R41">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R42">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Q44">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R44">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I45">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M45">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q45">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1000</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>1000</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>1000</v>
-      </c>
-      <c r="J46">
-        <v>10</v>
-      </c>
-      <c r="M46">
-        <v>1000</v>
-      </c>
-      <c r="N46">
-        <v>10</v>
-      </c>
-      <c r="Q46">
-        <v>1000</v>
-      </c>
-      <c r="R46">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2257,673 +2183,206 @@
       <c r="T48" s="12"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="11">
-        <v>500</v>
-      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11">
-        <v>375</v>
-      </c>
+      <c r="G50" s="11"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="11">
-        <v>250</v>
-      </c>
+      <c r="K50" s="11"/>
       <c r="L50" s="11"/>
-      <c r="M50" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="M50" s="11"/>
       <c r="N50" s="11"/>
-      <c r="O50" s="11">
-        <v>125</v>
-      </c>
+      <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="11">
-        <v>125</v>
-      </c>
+      <c r="S50" s="11"/>
       <c r="T50" s="11"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="11">
-        <v>400</v>
-      </c>
+      <c r="C51" s="11"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="11">
-        <v>300</v>
-      </c>
+      <c r="G51" s="11"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="11">
-        <v>200</v>
-      </c>
+      <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="M51" s="11"/>
       <c r="N51" s="11"/>
-      <c r="O51" s="11">
-        <v>100</v>
-      </c>
+      <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="11">
-        <v>100</v>
-      </c>
+      <c r="S51" s="11"/>
       <c r="T51" s="11"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A52" s="11"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="11">
-        <v>50</v>
-      </c>
+      <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="11">
-        <v>37</v>
-      </c>
+      <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="11">
-        <v>25</v>
-      </c>
+      <c r="K52" s="11"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="11">
-        <v>12</v>
-      </c>
+      <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="11">
-        <v>12</v>
-      </c>
+      <c r="S52" s="11"/>
       <c r="T52" s="11"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="11">
-        <v>5000</v>
-      </c>
+      <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="11">
-        <v>500</v>
-      </c>
+      <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="11">
-        <v>1000</v>
-      </c>
+      <c r="K53" s="11"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="M53" s="11"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="11">
-        <v>500</v>
-      </c>
+      <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11">
-        <v>500</v>
-      </c>
+      <c r="S53" s="11"/>
       <c r="T53" s="11"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A55" s="11"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="11">
-        <v>100</v>
-      </c>
+      <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="11">
-        <v>100</v>
-      </c>
+      <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="I55" s="11"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="11">
-        <v>100</v>
-      </c>
+      <c r="K55" s="11"/>
       <c r="L55" s="11"/>
-      <c r="M55" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="M55" s="11"/>
       <c r="N55" s="11"/>
-      <c r="O55" s="11">
-        <v>100</v>
-      </c>
+      <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="11">
-        <v>100</v>
-      </c>
+      <c r="S55" s="11"/>
       <c r="T55" s="11"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A56" s="11"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="11">
-        <v>10</v>
-      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="11">
-        <v>10</v>
-      </c>
+      <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="11">
-        <v>10</v>
-      </c>
+      <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="M56" s="11"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="11">
-        <v>10</v>
-      </c>
+      <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="11">
-        <v>10</v>
-      </c>
+      <c r="S56" s="11"/>
       <c r="T56" s="11"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>10000</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>10000</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>10000</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>10000</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="R59">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>2000</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>2000</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60">
-        <v>2000</v>
-      </c>
-      <c r="M60">
-        <v>5</v>
-      </c>
-      <c r="N60">
-        <v>2000</v>
-      </c>
-      <c r="Q60">
-        <v>5</v>
-      </c>
-      <c r="R60">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>10</v>
-      </c>
-      <c r="B61">
-        <v>1000</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>1000</v>
-      </c>
-      <c r="I61">
-        <v>10</v>
-      </c>
-      <c r="J61">
-        <v>1000</v>
-      </c>
-      <c r="M61">
-        <v>10</v>
-      </c>
-      <c r="N61">
-        <v>1000</v>
-      </c>
-      <c r="Q61">
-        <v>10</v>
-      </c>
-      <c r="R61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>20</v>
-      </c>
-      <c r="B62">
-        <v>500</v>
-      </c>
-      <c r="E62">
-        <v>20</v>
-      </c>
-      <c r="F62">
-        <v>500</v>
-      </c>
-      <c r="I62">
-        <v>20</v>
-      </c>
-      <c r="J62">
-        <v>500</v>
-      </c>
-      <c r="M62">
-        <v>20</v>
-      </c>
-      <c r="N62">
-        <v>500</v>
-      </c>
-      <c r="Q62">
-        <v>20</v>
-      </c>
-      <c r="R62">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>50</v>
-      </c>
-      <c r="B63">
-        <v>200</v>
-      </c>
-      <c r="E63">
-        <v>50</v>
-      </c>
-      <c r="F63">
-        <v>200</v>
-      </c>
-      <c r="I63">
-        <v>50</v>
-      </c>
-      <c r="J63">
-        <v>200</v>
-      </c>
-      <c r="M63">
-        <v>50</v>
-      </c>
-      <c r="N63">
-        <v>200</v>
-      </c>
-      <c r="Q63">
-        <v>50</v>
-      </c>
-      <c r="R63">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>100</v>
-      </c>
-      <c r="B64">
-        <v>100</v>
-      </c>
-      <c r="E64">
-        <v>100</v>
-      </c>
-      <c r="F64">
-        <v>100</v>
-      </c>
-      <c r="I64">
-        <v>100</v>
-      </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="M64">
-        <v>100</v>
-      </c>
-      <c r="N64">
-        <v>100</v>
-      </c>
-      <c r="Q64">
-        <v>100</v>
-      </c>
-      <c r="R64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>200</v>
-      </c>
-      <c r="B65">
-        <v>50</v>
-      </c>
-      <c r="E65">
-        <v>200</v>
-      </c>
-      <c r="F65">
-        <v>50</v>
-      </c>
-      <c r="I65">
-        <v>200</v>
-      </c>
-      <c r="J65">
-        <v>50</v>
-      </c>
-      <c r="M65">
-        <v>200</v>
-      </c>
-      <c r="N65">
-        <v>50</v>
-      </c>
-      <c r="Q65">
-        <v>200</v>
-      </c>
-      <c r="R65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>500</v>
-      </c>
-      <c r="B66">
-        <v>20</v>
-      </c>
-      <c r="E66">
-        <v>500</v>
-      </c>
-      <c r="F66">
-        <v>20</v>
-      </c>
-      <c r="I66">
-        <v>500</v>
-      </c>
-      <c r="J66">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>500</v>
-      </c>
-      <c r="N66">
-        <v>20</v>
-      </c>
-      <c r="Q66">
-        <v>500</v>
-      </c>
-      <c r="R66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1000</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-      <c r="E67">
-        <v>1000</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="I67">
-        <v>1000</v>
-      </c>
-      <c r="J67">
-        <v>10</v>
-      </c>
-      <c r="M67">
-        <v>1000</v>
-      </c>
-      <c r="N67">
-        <v>10</v>
-      </c>
-      <c r="Q67">
-        <v>1000</v>
-      </c>
-      <c r="R67">
-        <v>10</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="247">
+    <mergeCell ref="A6:T6"/>
     <mergeCell ref="Q54:T54"/>
     <mergeCell ref="Q55:R55"/>
     <mergeCell ref="S55:T55"/>
@@ -2970,6 +2429,7 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="A27:T27"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q11:R11"/>
@@ -2981,7 +2441,6 @@
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A6:P6"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E9:F9"/>
@@ -3077,7 +2536,6 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="M29:N29"/>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE80B28-6A70-451A-8B3D-DDAE7BF94643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E594647-80AD-4868-848A-4B40003128D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29:N29"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1428,77 +1428,39 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3">
-        <v>1.256</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>2.379</v>
+        <v>5.3390000000000004</v>
       </c>
       <c r="E23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1000</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>1000</v>
-      </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>1000</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>1000</v>
-      </c>
-      <c r="R24">
         <v>10</v>
       </c>
     </row>
@@ -2098,65 +2060,33 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M44">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N44">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q44">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1000</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>1000</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>1000</v>
-      </c>
-      <c r="J45">
-        <v>10</v>
-      </c>
-      <c r="M45">
-        <v>1000</v>
-      </c>
-      <c r="N45">
-        <v>10</v>
-      </c>
-      <c r="Q45">
-        <v>1000</v>
-      </c>
-      <c r="R45">
         <v>10</v>
       </c>
     </row>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E594647-80AD-4868-848A-4B40003128D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21DD40-68E4-4D8E-B37F-360F4876646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>实例个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +346,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -628,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,10 +816,10 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -845,12 +846,6 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -874,7 +869,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
@@ -885,14 +880,6 @@
         <v>50</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10">
-        <v>50</v>
-      </c>
-      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -916,7 +903,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
@@ -924,17 +911,9 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10">
-        <v>12</v>
-      </c>
-      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -958,7 +937,7 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
@@ -966,17 +945,9 @@
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10">
-        <v>3</v>
-      </c>
-      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -1000,7 +971,7 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
@@ -1008,17 +979,9 @@
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10">
-        <v>125</v>
-      </c>
-      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -1045,12 +1008,6 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -1085,14 +1042,6 @@
         <v>100</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11">
-        <v>100</v>
-      </c>
-      <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -1127,14 +1076,6 @@
         <v>10</v>
       </c>
       <c r="P14" s="11"/>
-      <c r="Q14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11">
-        <v>10</v>
-      </c>
-      <c r="T14" s="11"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1185,18 +1126,6 @@
       <c r="P16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1229,12 +1158,6 @@
       <c r="N17">
         <v>2000</v>
       </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>2000</v>
-      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1265,12 +1188,6 @@
         <v>10</v>
       </c>
       <c r="N18">
-        <v>1000</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-      <c r="R18">
         <v>1000</v>
       </c>
     </row>
@@ -1305,12 +1222,6 @@
       <c r="N19">
         <v>500</v>
       </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-      <c r="R19">
-        <v>500</v>
-      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1343,12 +1254,6 @@
       <c r="N20">
         <v>200</v>
       </c>
-      <c r="Q20">
-        <v>50</v>
-      </c>
-      <c r="R20">
-        <v>200</v>
-      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1379,12 +1284,6 @@
         <v>100</v>
       </c>
       <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="Q21">
-        <v>100</v>
-      </c>
-      <c r="R21">
         <v>100</v>
       </c>
     </row>
@@ -1419,12 +1318,6 @@
       <c r="N22">
         <v>50</v>
       </c>
-      <c r="Q22">
-        <v>200</v>
-      </c>
-      <c r="R22">
-        <v>50</v>
-      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1455,12 +1348,6 @@
         <v>1000</v>
       </c>
       <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="Q23">
-        <v>1000</v>
-      </c>
-      <c r="R23">
         <v>10</v>
       </c>
     </row>
@@ -1483,10 +1370,10 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
@@ -1513,12 +1400,6 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
@@ -1542,7 +1423,7 @@
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11" t="s">
@@ -1553,14 +1434,6 @@
         <v>125</v>
       </c>
       <c r="P29" s="11"/>
-      <c r="Q29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11">
-        <v>125</v>
-      </c>
-      <c r="T29" s="11"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
@@ -1584,7 +1457,7 @@
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11" t="s">
@@ -1595,14 +1468,6 @@
         <v>100</v>
       </c>
       <c r="P30" s="11"/>
-      <c r="Q30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11">
-        <v>100</v>
-      </c>
-      <c r="T30" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
@@ -1626,7 +1491,7 @@
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11" t="s">
@@ -1637,14 +1502,6 @@
         <v>12</v>
       </c>
       <c r="P31" s="11"/>
-      <c r="Q31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11">
-        <v>12</v>
-      </c>
-      <c r="T31" s="11"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
@@ -1668,7 +1525,7 @@
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11" t="s">
@@ -1679,14 +1536,6 @@
         <v>500</v>
       </c>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11">
-        <v>500</v>
-      </c>
-      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -1713,12 +1562,6 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -1753,14 +1596,6 @@
         <v>100</v>
       </c>
       <c r="P34" s="10"/>
-      <c r="Q34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10">
-        <v>100</v>
-      </c>
-      <c r="T34" s="10"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
@@ -1795,14 +1630,6 @@
         <v>10</v>
       </c>
       <c r="P35" s="10"/>
-      <c r="Q35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10">
-        <v>10</v>
-      </c>
-      <c r="T35" s="10"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1853,18 +1680,6 @@
       <c r="P37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -1891,12 +1706,6 @@
       <c r="N38">
         <v>2000</v>
       </c>
-      <c r="Q38">
-        <v>5</v>
-      </c>
-      <c r="R38">
-        <v>2000</v>
-      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1921,12 +1730,6 @@
         <v>10</v>
       </c>
       <c r="N39">
-        <v>1000</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-      <c r="R39">
         <v>1000</v>
       </c>
     </row>
@@ -1955,12 +1758,6 @@
       <c r="N40">
         <v>500</v>
       </c>
-      <c r="Q40">
-        <v>20</v>
-      </c>
-      <c r="R40">
-        <v>500</v>
-      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1987,12 +1784,6 @@
       <c r="N41">
         <v>200</v>
       </c>
-      <c r="Q41">
-        <v>50</v>
-      </c>
-      <c r="R41">
-        <v>200</v>
-      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -2017,12 +1808,6 @@
         <v>100</v>
       </c>
       <c r="N42">
-        <v>100</v>
-      </c>
-      <c r="Q42">
-        <v>100</v>
-      </c>
-      <c r="R42">
         <v>100</v>
       </c>
     </row>
@@ -2051,12 +1836,6 @@
       <c r="N43">
         <v>50</v>
       </c>
-      <c r="Q43">
-        <v>200</v>
-      </c>
-      <c r="R43">
-        <v>50</v>
-      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -2081,12 +1860,6 @@
         <v>1000</v>
       </c>
       <c r="N44">
-        <v>10</v>
-      </c>
-      <c r="Q44">
-        <v>1000</v>
-      </c>
-      <c r="R44">
         <v>10</v>
       </c>
     </row>
@@ -2169,14 +1942,6 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
@@ -2191,14 +1956,6 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
@@ -2213,14 +1970,6 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
@@ -2235,14 +1984,6 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
@@ -2257,14 +1998,6 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
@@ -2279,14 +2012,6 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
@@ -2301,40 +2026,20 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
+  <mergeCells count="197">
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q49:T49"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="S50:T50"/>
     <mergeCell ref="A48:T48"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="M50:N50"/>
     <mergeCell ref="O50:P50"/>
@@ -2342,35 +2047,34 @@
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="M49:P49"/>
+    <mergeCell ref="I34:J34"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M12:P12"/>
     <mergeCell ref="M1:T1"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A6:P6"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E9:F9"/>
@@ -2384,8 +2088,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:F56"/>
@@ -2394,26 +2096,19 @@
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:P54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
     <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
@@ -2425,8 +2120,6 @@
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="E50:F50"/>
@@ -2435,50 +2128,36 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:P33"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="I28:L28"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="A31:B31"/>
@@ -2490,40 +2169,28 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21DD40-68E4-4D8E-B37F-360F4876646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3A323-947C-4C69-B5D1-77C8F52A9F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
@@ -877,7 +877,7 @@
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P8" s="10"/>
     </row>
@@ -1146,6 +1146,12 @@
       <c r="F17">
         <v>2000</v>
       </c>
+      <c r="G17" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="I17">
         <v>5</v>
       </c>
@@ -1177,6 +1183,12 @@
       </c>
       <c r="F18">
         <v>1000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.06</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1210,6 +1222,12 @@
       <c r="F19">
         <v>500</v>
       </c>
+      <c r="G19" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="I19">
         <v>20</v>
       </c>
@@ -1242,6 +1260,12 @@
       <c r="F20">
         <v>200</v>
       </c>
+      <c r="G20" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.17199999999999999</v>
+      </c>
       <c r="I20">
         <v>50</v>
       </c>
@@ -1273,6 +1297,12 @@
       </c>
       <c r="F21">
         <v>100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.30599999999999999</v>
       </c>
       <c r="I21">
         <v>100</v>
@@ -1306,6 +1336,12 @@
       <c r="F22">
         <v>50</v>
       </c>
+      <c r="G22" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.78400000000000003</v>
+      </c>
       <c r="I22">
         <v>200</v>
       </c>
@@ -1337,6 +1373,12 @@
       </c>
       <c r="F23">
         <v>10</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2.81</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5.3380000000000001</v>
       </c>
       <c r="I23">
         <v>1000</v>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD3A323-947C-4C69-B5D1-77C8F52A9F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280EA2E-A0EE-4BA1-8C70-D40E1C5D0491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/性能测试结果.xlsx
+++ b/doc/性能测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\AI_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280EA2E-A0EE-4BA1-8C70-D40E1C5D0491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B470C2D-69CA-441E-BEFA-20F81753DAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>实例个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="O32" sqref="O32:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10" t="s">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
@@ -911,7 +911,7 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P9" s="10"/>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
@@ -945,7 +945,7 @@
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P10" s="10"/>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
@@ -979,7 +979,7 @@
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="P11" s="10"/>
     </row>
@@ -1164,6 +1164,12 @@
       <c r="N17">
         <v>2000</v>
       </c>
+      <c r="O17">
+        <v>0.04</v>
+      </c>
+      <c r="P17">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1201,6 +1207,12 @@
       </c>
       <c r="N18">
         <v>1000</v>
+      </c>
+      <c r="O18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P18">
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1240,6 +1252,12 @@
       <c r="N19">
         <v>500</v>
       </c>
+      <c r="O19">
+        <v>0.52</v>
+      </c>
+      <c r="P19">
+        <v>8.3000000000000004E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1278,6 +1296,12 @@
       <c r="N20">
         <v>200</v>
       </c>
+      <c r="O20">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.221</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1316,6 +1340,12 @@
       <c r="N21">
         <v>100</v>
       </c>
+      <c r="O21">
+        <v>0.23</v>
+      </c>
+      <c r="P21">
+        <v>0.34799999999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1354,6 +1384,12 @@
       <c r="N22">
         <v>50</v>
       </c>
+      <c r="O22">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.56799999999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1391,6 +1427,12 @@
       </c>
       <c r="N23">
         <v>10</v>
+      </c>
+      <c r="O23">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="P23">
+        <v>5.6959999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -1408,10 +1450,10 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
@@ -1436,9 +1478,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -1468,13 +1508,9 @@
         <v>125</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="11">
-        <v>125</v>
-      </c>
+      <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -1502,13 +1538,9 @@
         <v>100</v>
       </c>
       <c r="L30" s="11"/>
-      <c r="M30" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="11">
-        <v>100</v>
-      </c>
+      <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -1536,13 +1568,9 @@
         <v>12</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="M31" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="11">
-        <v>12</v>
-      </c>
+      <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -1570,13 +1598,9 @@
         <v>500</v>
       </c>
       <c r="L32" s="11"/>
-      <c r="M32" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="11">
-        <v>500</v>
-      </c>
+      <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -1598,9 +1622,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
-      <c r="M33" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
@@ -1630,13 +1652,9 @@
         <v>100</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="10">
-        <v>100</v>
-      </c>
+      <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -1664,13 +1682,9 @@
         <v>10</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10">
-        <v>10</v>
-      </c>
+      <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -1710,18 +1724,10 @@
       <c r="L37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -1742,12 +1748,6 @@
       <c r="J38">
         <v>2000</v>
       </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-      <c r="N38">
-        <v>2000</v>
-      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1766,12 +1766,6 @@
         <v>10</v>
       </c>
       <c r="J39">
-        <v>1000</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-      <c r="N39">
         <v>1000</v>
       </c>
     </row>
@@ -1794,12 +1788,6 @@
       <c r="J40">
         <v>500</v>
       </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>500</v>
-      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1820,12 +1808,6 @@
       <c r="J41">
         <v>200</v>
       </c>
-      <c r="M41">
-        <v>50</v>
-      </c>
-      <c r="N41">
-        <v>200</v>
-      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -1846,12 +1828,6 @@
       <c r="J42">
         <v>100</v>
       </c>
-      <c r="M42">
-        <v>100</v>
-      </c>
-      <c r="N42">
-        <v>100</v>
-      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1872,12 +1848,6 @@
       <c r="J43">
         <v>50</v>
       </c>
-      <c r="M43">
-        <v>200</v>
-      </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1896,12 +1866,6 @@
         <v>1000</v>
       </c>
       <c r="J44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>1000</v>
-      </c>
-      <c r="N44">
         <v>10</v>
       </c>
     </row>
@@ -2071,6 +2035,11 @@
     </row>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A27:L27"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q49:T49"/>
@@ -2106,16 +2075,12 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G8:H8"/>
@@ -2193,7 +2158,6 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="I29:J29"/>
@@ -2214,15 +2178,15 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="E14:F14"/>
